--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45820.53803240741</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45204</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>44595</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44538</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44734</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44385</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44537</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>45315</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45824</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>45715</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>45839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>45692</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45351</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45874</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>45986</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>45988.65354166667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44715</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>45894.40344907407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45541</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>45925</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>46057.60315972222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>46057</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45042.46042824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>45168</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44298.77184027778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>45099</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45168</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>45168</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44840</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>45168</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>44756</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44298</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44298.78383101852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44872.45966435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44278.85105324074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>44705.66399305555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44398.61230324074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44677</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44796.58885416666</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44237</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>44445.36804398148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>44267</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44711</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44873</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44314.34269675926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44470.49771990741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44271.85346064815</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44390</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44286</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44516</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>44286.86600694444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>44470</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>44536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>44298</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>44333.36709490741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>44455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>44872.55415509259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>44344.57557870371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>44538.31776620371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>44593</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44628.69372685185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44649</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44474.2921412037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44760.72789351852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44258.33224537037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44760.71983796296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44470.49953703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>44455</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44677</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44237</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44865.60694444444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44266.85804398148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44537</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>44579</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>44537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44722.39940972222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44369</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44494</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44312</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44373</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44281</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44544.60033564815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44265.51692129629</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44875</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>45482.41182870371</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>45279</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>45079</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45363.30917824074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45642.38490740741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>45630.66725694444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45642.46412037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>45358.37987268518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>45610.58774305556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>45183</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>45091.2996875</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>45196.53935185185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>44281.34355324074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>45265</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>45275</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>45642.38042824074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>45539</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>44897</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44461</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45742.5906712963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>45306.62268518518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>45733.38145833334</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44482.51581018518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>45775.48255787037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>45561.34752314815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>45240.41471064815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>45169.64943287037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>45660.65819444445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>45168</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>45168</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>45805.35238425926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>45800.61434027777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>45168</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>45168</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>45168</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>45714.53895833333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>45769.57918981482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>45800</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44691.50175925926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44823</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>45750.60021990741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>45734.41832175926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>45735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>45239</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44594.69905092593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>45330</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45359.7271412037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>44482</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>45329</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>45812.67229166667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>45817.39215277778</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>45818.32003472222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>45894.40454861111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>45750.90273148148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>44687.38103009259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>45683.70596064815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45897.89027777778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>45818</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>45740.28686342593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>45231</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>45642</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>45897.90020833333</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>45819.41424768518</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>45903.66137731481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>45168</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>45168</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44974</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>45260</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44321</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44308.44898148148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>45677</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>45257.41971064815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11642,7 +11642,7 @@
         <v>45258.32262731482</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>45302</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>45065</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>45824</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>45840.21125</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>45000</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>45826.6940625</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>45917.29790509259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>45831</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>45916.63679398148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45917.30282407408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>45831.54060185186</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>45918.49800925926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>45831</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45831</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>45259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>45559</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>45015</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>45015.63540509259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>45831.57732638889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>45831</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>45715</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>45918.583125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>45831.54210648148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>45831.54357638889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45908.55969907407</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45356.38505787037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45680.39600694444</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45168</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>45920.92194444445</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>45923</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>45923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44885.79155092593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44885.78092592592</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45096.6325</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44952</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44742.4496875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>45240</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>45275.52637731482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44622</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>45925.62614583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>45925.66769675926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>45925.68002314815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>45924.38400462963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>45561.34861111111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>45834.33922453703</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>45257</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>45685.69002314815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>45925.8955787037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>45925.8935300926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>45926.39710648148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>45931.3865162037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>45931.37336805555</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>45931.37539351852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>45931.37692129629</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>45488</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44830.38820601852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>45415.46893518518</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>45839</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>45839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45660</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45735</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>45933.26612268519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>45531</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>45841.69149305556</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>45841.69039351852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>45889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>45938.67177083333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>45251.91923611111</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>45681.31789351852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>45681.31962962963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>45401</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>45257.42439814815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>45842.41909722222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>45708.44487268518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45408.62030092593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45356.38741898148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45316</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45793.52732638889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45215</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45846.49229166667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45946.77001157407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45589</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45168</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45168</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>45170.72892361111</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>45681</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45855.48496527778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>45854.67393518519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45950.61408564815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>45950.61924768519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>45856.40416666667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>45750.6049537037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>45951.62796296296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>45091.3471412037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>45741.64314814815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>45952.58759259259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>45952.59629629629</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44662</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>45707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44711</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45952.60084490741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45259.43509259259</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45493.47959490741</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45488</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44621</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45172.95373842592</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45826.35177083333</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44917.52165509259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44917.52959490741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45079</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45000.74719907407</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44917.52429398148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45736</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44879.6184375</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44917.52596064815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>45757.45137731481</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>45581.66946759259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44699</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>45082</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>45001.32571759259</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44580</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44817</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>45311</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45266.35800925926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45729.62856481481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45642</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45082</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>45050</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>45006</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>45029.34693287037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>45278</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>45611.55888888889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45959.64181712963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45335</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45959.54585648148</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44621.60381944444</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45099</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45959.54981481482</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>45750.89005787037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45357.91354166667</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45797</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44699</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>45068</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>45581.7397337963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>45579.99072916667</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>45299.62641203704</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>45874.64545138889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>45874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>45874</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>45876.47466435185</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>45279</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>45562.51806712963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>45562.52197916667</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>45959.5528125</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45959.54146990741</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>45167.67372685186</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45636.61754629629</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>45636.6203587963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>45959.64355324074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>45880.66543981482</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>45883</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         <v>45692.43351851852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21469,7 +21469,7 @@
         <v>45967.66916666667</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>45555</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>45973</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>45973.47600694445</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45183.52023148148</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45279</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45974.88986111111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>45168</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>45812.7384375</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>45769.56699074074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>45268</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44239</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>45883.91351851852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>45209.44792824074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>45632.56091435185</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>45050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>45329</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>45980.68539351852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>46027.51175925926</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>45981.81606481481</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44316.34237268518</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44712</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>45986</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>45986</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>45986</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45264</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22991,7 +22991,7 @@
         <v>45258</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44628.69831018519</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44880.65715277778</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>45952</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>45988.40692129629</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         <v>44897</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>45952</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>46031.52061342593</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>45758.31204861111</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>45988.42230324074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>45727.72804398148</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>46034.73287037037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>46034.73011574074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>44557.47532407408</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>44309</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>45895</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>46031.62069444444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>45482.40924768519</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45476.48814814815</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45476.49149305555</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45994.35421296296</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45607.58951388889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45994.48966435185</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44285</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>45217</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45614.53155092592</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>45348.61578703704</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>45441.5399537037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>45699</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>45323.32376157407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>44607.72329861111</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45435</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44518.49196759259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44520.28814814815</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45117.61945601852</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45537.81940972222</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45154</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>46027</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44610.42103009259</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44753.56546296296</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44721.34331018518</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>46002.59631944444</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>46044.6992824074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45170.71023148148</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>46044.55273148148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45159.37650462963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>46006.61938657407</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44802</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>46035</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>45146.5987037037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>46051</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>45316</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>46008.64953703704</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>46050.32162037037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45973</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44595.5705787037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>46007.83387731481</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>46008.4332175926</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         <v>44917</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26617,7 +26617,7 @@
         <v>46050.55594907407</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26674,7 +26674,7 @@
         <v>45126</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         <v>46013.54628472222</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44410</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>45259.43715277778</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>45967</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>45589</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>45973</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>46031</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>46057.26278935185</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>46057.26717592592</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44852.64613425926</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>46057.59984953704</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>46057.60424768519</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>45168</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>45170</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45485.55289351852</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>46057.26606481482</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>44974.45418981482</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>44775</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>46059.43388888889</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27819,7 +27819,7 @@
         <v>44910.59059027778</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27876,7 +27876,7 @@
         <v>44571.46902777778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27933,7 +27933,7 @@
         <v>46059.63407407407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27990,7 +27990,7 @@
         <v>44266.8628125</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>46059.63744212963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>45168</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>45588.61980324074</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>45156.3503587963</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44868.59210648148</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44938</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>45006</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>45660.6609375</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>45217.41502314815</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28570,7 +28570,7 @@
         <v>45217</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28627,7 +28627,7 @@
         <v>45321</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28684,7 +28684,7 @@
         <v>45267.42196759259</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28741,7 +28741,7 @@
         <v>45267</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28798,7 +28798,7 @@
         <v>45562.52357638889</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>45627.83663194445</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28912,7 +28912,7 @@
         <v>45154</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28969,7 +28969,7 @@
         <v>45386</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44482.48983796296</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>44482</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>44642</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44722.39731481481</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44712</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>45230.59971064814</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>45239.56006944444</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>45239.56157407408</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44461</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29601,7 +29601,7 @@
         <v>45589.27788194444</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29658,7 +29658,7 @@
         <v>44806.59726851852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29715,7 +29715,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>45168</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44482</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>45615</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44922</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44964</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>44964</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>45264</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44315.53799768518</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>45168</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>45531.38819444444</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44713</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>45122</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>45404.41497685185</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>45600</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>44466</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>44974.41206018518</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30714,7 +30714,7 @@
         <v>45632.47847222222</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30771,7 +30771,7 @@
         <v>44964</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>45169.63234953704</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>45168</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45323</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45203.58145833333</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>45707</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>45168</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>45769</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>45441.54493055555</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>45099</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>45707.33138888889</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>45632.31962962963</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45238.68503472222</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>45099</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44827</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>45561.34983796296</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>45712.43388888889</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44298</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>45450.64008101852</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>45429.52054398148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>45306</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44470</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>45561.41157407407</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>45251</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>45216.62940972222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44964.55631944445</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>45733.37868055556</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44775.39306712963</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44273</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>45090.27539351852</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>45267</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>45194</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45229.46193287037</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>45636.61350694444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         <v>44886.51590277778</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32843,7 +32843,7 @@
         <v>45712.4275462963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>45071.73902777778</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32957,7 +32957,7 @@
         <v>45771.46960648148</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33014,7 +33014,7 @@
         <v>45443</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>45784.36950231482</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>45583.48961805556</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>45555.45988425926</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>45747.41398148148</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>45792.65913194444</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>45694.65775462963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44677.58336805556</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>45226.51993055556</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>45562.48688657407</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>45797</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>45716.47539351852</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>45316</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>45627.58118055556</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45820.53803240741</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45204</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>44595</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44538</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44734</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44385</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44537</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>45315</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45824</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>45715</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>45839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>45692</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45351</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>45874</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>45986</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>45988.65354166667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44715</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>45894.40344907407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45541</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>45925</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>46057.60315972222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>46057</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45042.46042824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>45168</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44298.77184027778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>45099</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45168</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>45168</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44840</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>45168</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>44756</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44298</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44298.78383101852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44872.45966435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44278.85105324074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>44705.66399305555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44398.61230324074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44677</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44796.58885416666</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44237</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>44445.36804398148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>44267</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44711</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44873</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44314.34269675926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44470.49771990741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44271.85346064815</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44390</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44286</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44516</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>44286.86600694444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>44470</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>44536</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>44298</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>44333.36709490741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>44455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>44872.55415509259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>44344.57557870371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>44538.31776620371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>44593</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44628.69372685185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44649</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44474.2921412037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44760.72789351852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44258.33224537037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44760.71983796296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44470.49953703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>44455</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44677</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44237</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>44865.60694444444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>44538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>44266.85804398148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>44537</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>44579</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>44537</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44722.39940972222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44369</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44441</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44494</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44312</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44373</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44281</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44656</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44544.60033564815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44265.51692129629</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44875</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>45482.41182870371</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>45279</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>45079</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45363.30917824074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45642.38490740741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>45630.66725694444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45642.46412037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>45358.37987268518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>45610.58774305556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>45183</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>45091.2996875</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>45196.53935185185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>44281.34355324074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>45265</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>45275</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>45642.38042824074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>45539</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>44897</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44461</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45742.5906712963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44845</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>45306.62268518518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>45733.38145833334</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44482.51581018518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>45775.48255787037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>45561.34752314815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>45240.41471064815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>45169.64943287037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>45660.65819444445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>45168</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>45168</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>45805.35238425926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>45800.61434027777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>45168</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>45168</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>45168</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>45714.53895833333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>45769.57918981482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>45800</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44691.50175925926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44823</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>45750.60021990741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>45734.41832175926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>45735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>45239</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44594.69905092593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>45330</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45359.7271412037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>44482</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>45329</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>45812.67229166667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>45817.39215277778</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>45818.32003472222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>45894.40454861111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>45750.90273148148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>44687.38103009259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>45683.70596064815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45897.89027777778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>45818</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>45740.28686342593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>45231</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>45642</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>45897.90020833333</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>45819.41424768518</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>45903.66137731481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>45168</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>45168</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44974</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>45260</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>44321</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>44308.44898148148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>45677</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>44827</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>45257.41971064815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11642,7 +11642,7 @@
         <v>45258.32262731482</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>45302</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>45065</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>45824</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>45840.21125</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>45000</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>45826.6940625</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>45917.29790509259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>45831</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>45916.63679398148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45917.30282407408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>45831.54060185186</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>45918.49800925926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>45831</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45831</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>45259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>45559</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>45015</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>45015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>45015.63540509259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>45831.57732638889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>45831</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>45715</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>45918.583125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>45831.54210648148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>45831.54357638889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45908.55969907407</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45356.38505787037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45680.39600694444</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45168</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>45920.92194444445</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>45923</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>45923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44885.79155092593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44885.78092592592</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45096.6325</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44952</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44742.4496875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>45240</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>45275.52637731482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44622</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>45925.62614583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>45925.66769675926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>45925.68002314815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>45924.38400462963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>45561.34861111111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>45834.33922453703</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>45257</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>45685.69002314815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>45925.8955787037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>45925.8935300926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>45926.39710648148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>45931.3865162037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>45931.37336805555</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>45931.37539351852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>45931.37692129629</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>45488</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44830.38820601852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>45415.46893518518</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>45839</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>45839</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45660</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44316</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45735</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>45933.26612268519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>45531</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>45841.69149305556</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>45841.69039351852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>45889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>45938.67177083333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>45251.91923611111</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>45681.31789351852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>45681.31962962963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>45401</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>45257.42439814815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>45842.41909722222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>45708.44487268518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45408.62030092593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45356.38741898148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45316</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45793.52732638889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45215</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45846.49229166667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45946.77001157407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45589</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45168</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45168</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>45170.72892361111</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>45681</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45855.48496527778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>45854.67393518519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45950.61408564815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>45950.61924768519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>45856.40416666667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>45750.6049537037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>45951.62796296296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>45091.3471412037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>45741.64314814815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>45952.58759259259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>45952.59629629629</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44662</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>45707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44711</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45952.60084490741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45259.43509259259</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45493.47959490741</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45488</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44621</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45172.95373842592</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45826.35177083333</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44917.52165509259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44917.52959490741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45079</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45000.74719907407</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44917.52429398148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45736</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45229</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44879.6184375</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>44879</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44917.52596064815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>45757.45137731481</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>45581.66946759259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44699</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>45082</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>45001.32571759259</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44580</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44817</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>45311</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45266.35800925926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45729.62856481481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45642</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>45692</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>45082</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>45050</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>45006</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>45029.34693287037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>45278</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>45611.55888888889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45959.64181712963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45335</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45159</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45959.54585648148</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44621.60381944444</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45099</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>45959.54981481482</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>45750.89005787037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45357.91354166667</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45797</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44699</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>45068</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>45581.7397337963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>45579.99072916667</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>45299.62641203704</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>45874.64545138889</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>45874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>45874</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>45876.47466435185</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>45279</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>45562.51806712963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>45562.52197916667</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>45959.5528125</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45959.54146990741</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>45167.67372685186</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45636.61754629629</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>45636.6203587963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>45959.64355324074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>45880.66543981482</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>45883</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         <v>45692.43351851852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21469,7 +21469,7 @@
         <v>45967.66916666667</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>45555</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>45973</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>45973.47600694445</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>45183.52023148148</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45279</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45974.88986111111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>45168</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>45812.7384375</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>45769.56699074074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>45268</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44239</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>45883.91351851852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>45209.44792824074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>45632.56091435185</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>45050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
         <v>45329</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>45980.68539351852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>46027.51175925926</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>45981.81606481481</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>44316.34237268518</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44712</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>45986</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>45986</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>45986</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45264</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22991,7 +22991,7 @@
         <v>45258</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44628.69831018519</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>45035</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>44880.65715277778</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>45952</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>45988.40692129629</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         <v>44897</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>45952</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>46031.52061342593</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>45758.31204861111</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>45988.42230324074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>45727.72804398148</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>46034.73287037037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>46034.73011574074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>44557.47532407408</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>44309</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>45895</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>46031.62069444444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>45482.40924768519</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45476.48814814815</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45476.49149305555</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45994.35421296296</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45607.58951388889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45994.48966435185</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44285</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>45217</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45614.53155092592</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>45348.61578703704</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>45441.5399537037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>45699</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>45323.32376157407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>44607.72329861111</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45435</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44518.49196759259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44520.28814814815</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45117.61945601852</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45537.81940972222</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45154</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>46027</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>44610.42103009259</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44753.56546296296</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>44721.34331018518</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>46002.59631944444</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>46044.6992824074</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>44742</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45170.71023148148</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>46044.55273148148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45159.37650462963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>46006.61938657407</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44802</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>46035</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>45146.5987037037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>46051</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>45316</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>46008.64953703704</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>46050.32162037037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45973</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44595.5705787037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>46007.83387731481</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>46008.4332175926</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         <v>44917</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26617,7 +26617,7 @@
         <v>46050.55594907407</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26674,7 +26674,7 @@
         <v>45126</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         <v>46013.54628472222</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44410</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>45259.43715277778</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>45967</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>45589</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>45973</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>46031</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27130,7 +27130,7 @@
         <v>46057.26278935185</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27187,7 +27187,7 @@
         <v>46057.26717592592</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>44852.64613425926</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>46057.59984953704</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>46057.60424768519</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27415,7 +27415,7 @@
         <v>45168</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>45170</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45485.55289351852</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>46057.26606481482</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>44974.45418981482</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>44775</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>46059.43388888889</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27819,7 +27819,7 @@
         <v>44910.59059027778</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27876,7 +27876,7 @@
         <v>44571.46902777778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27933,7 +27933,7 @@
         <v>46059.63407407407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27990,7 +27990,7 @@
         <v>44266.8628125</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>46059.63744212963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>45168</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>45588.61980324074</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>45156.3503587963</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44868.59210648148</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>44938</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>45006</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>45660.6609375</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>45217.41502314815</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28570,7 +28570,7 @@
         <v>45217</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28627,7 +28627,7 @@
         <v>45321</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28684,7 +28684,7 @@
         <v>45267.42196759259</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28741,7 +28741,7 @@
         <v>45267</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28798,7 +28798,7 @@
         <v>45562.52357638889</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>45627.83663194445</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28912,7 +28912,7 @@
         <v>45154</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28969,7 +28969,7 @@
         <v>45386</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44482.48983796296</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>44482</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>44642</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44722.39731481481</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44712</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>45230.59971064814</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>45239.56006944444</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>45239.56157407408</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44461</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29601,7 +29601,7 @@
         <v>45589.27788194444</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29658,7 +29658,7 @@
         <v>44806.59726851852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29715,7 +29715,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>45168</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44482</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>45615</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44922</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44964</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>44964</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>45264</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44315.53799768518</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>45168</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>45531.38819444444</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>44713</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>45122</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>45404.41497685185</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>45600</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>44466</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>44974.41206018518</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30714,7 +30714,7 @@
         <v>45632.47847222222</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30771,7 +30771,7 @@
         <v>44964</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>45169.63234953704</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>45168</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45323</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45203.58145833333</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>45707</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>45168</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>45769</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>45441.54493055555</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>45099</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>45707.33138888889</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>45632.31962962963</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45238.68503472222</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>45099</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44827</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>45561.34983796296</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>45712.43388888889</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44298</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>45450.64008101852</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>45429.52054398148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>45306</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44470</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>45561.41157407407</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>45251</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>45216.62940972222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44964.55631944445</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>45733.37868055556</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>44775.39306712963</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>44273</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>45090.27539351852</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>45267</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>45194</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32667,7 +32667,7 @@
         <v>45229.46193287037</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>45636.61350694444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         <v>44886.51590277778</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32843,7 +32843,7 @@
         <v>45712.4275462963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>45071.73902777778</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32957,7 +32957,7 @@
         <v>45771.46960648148</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33014,7 +33014,7 @@
         <v>45443</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>45784.36950231482</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>45583.48961805556</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>45555.45988425926</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>45747.41398148148</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>45792.65913194444</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>45694.65775462963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44677.58336805556</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>45226.51993055556</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>45562.48688657407</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>45797</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>45716.47539351852</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>45316</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>45627.58118055556</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45820.53803240741</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45204</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>44595</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44538</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44734</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44385</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44537</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>45315</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45824</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>45839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45715</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>45692</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>45351</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44715</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45986</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>45988.65354166667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>45894.40344907407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45541</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>46057.60315972222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>46057</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45925</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45042.46042824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>45168</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44298.77184027778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>45099</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45168</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>45168</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44840</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>45168</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>44756</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44298</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44298.78383101852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44872.45966435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44278.85105324074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>44705.66399305555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44398.61230324074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44677</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44796.58885416666</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44445.36804398148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>44267</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44873</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44314.34269675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44271.85346064815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44470.49771990741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44390</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44286</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>44286.86600694444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>44470</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>44536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>44298</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>44333.36709490741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>44455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>44872.55415509259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>44344.57557870371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>44538.31776620371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>44593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>44628.69372685185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44649</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44474.2921412037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44760.72789351852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44258.33224537037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44760.71983796296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44470.49953703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>44677</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44865.60694444444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44266.85804398148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44537</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44579</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>44537</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44722.39940972222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44369</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44441</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44494</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44312</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44373</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44281</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44656</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44544.60033564815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44265.51692129629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>45482.41182870371</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>45279</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44875</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>45363.30917824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>45642.38490740741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45642.46412037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45630.66725694444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>45610.58774305556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>45183</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>45358.37987268518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44281.34355324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>45091.2996875</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>45265</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>45196.53935185185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>45275</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>45642.38042824074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>45539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>44897</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>44845</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>45306.62268518518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>45742.5906712963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>44461</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>45733.38145833334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>45240.41471064815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>45169.64943287037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>45660.65819444445</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44482.51581018518</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>45775.48255787037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>45561.34752314815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>45168</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45168</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>45168</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>45168</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>45168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>45769.57918981482</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44823</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44691.50175925926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>45734.41832175926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>45329</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>45239</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44594.69905092593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>45818</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>45805.35238425926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>45800.61434027777</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44687.38103009259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>45642</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>45819.41424768518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>45714.53895833333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45800</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45231</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>45677</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>45750.60021990741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>45824</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>45168</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45168</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44974</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>45260</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44321</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44308.44898148148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>45826.6940625</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>45818.32003472222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>45831</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44827</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>45257.41971064815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45894.40454861111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45750.90273148148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>45831.54060185186</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>45258.32262731482</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>45302</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>45831</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>45831</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>45065</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>45831.57732638889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>45831</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>45831.54210648148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>45831.54357638889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>45683.70596064815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>45000</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>45897.89027777778</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>45740.28686342593</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>45561.34861111111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>45834.33922453703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>45897.90020833333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>45903.66137731481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45559</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45015</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45015</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45015.63540509259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>45356.38505787037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>45839</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>45839</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>45680.39600694444</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>45168</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44885.79155092593</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44885.78092592592</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>45096.6325</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>45841.69149305556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45841.69039351852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44742.4496875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>45240</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>45275.52637731482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44622</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>45840.21125</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45257</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45685.69002314815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45842.41909722222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45708.44487268518</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45793.52732638889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>45846.49229166667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45917.29790509259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>45916.63679398148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>45488</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44830.38820601852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>45415.46893518518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>45917.30282407408</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>45918.49800925926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>45681</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>45855.48496527778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>45660</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>45715</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>45918.583125</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>45854.67393518519</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>45856.40416666667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>45908.55969907407</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44316</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>45735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>45750.6049537037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>45920.92194444445</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>45923</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>45923</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>45741.64314814815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>45531</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>45707</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>45925.62614583333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45925.66769675926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>45925.68002314815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45924.38400462963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>45493.47959490741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>45251.91923611111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44621</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>45172.95373842592</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>45826.35177083333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>45681.31789351852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>45681.31962962963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>45925.8955787037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44917.52165509259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44917.52959490741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>45000.74719907407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44917.52429398148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45736</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45229</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45925.8935300926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44879.6184375</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44879</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44917.52596064815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45757.45137731481</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45581.66946759259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45926.39710648148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44699</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45082</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45001.32571759259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44817</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>45311</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>45266.35800925926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>45729.62856481481</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>45642</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>45692</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45931.3865162037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45050</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45006</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45029.34693287037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45401</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45611.55888888889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45159</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44621.60381944444</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44621</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45099</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45931.37336805555</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45931.37539351852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45931.37692129629</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45750.89005787037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45357.91354166667</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45797</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44699</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>45068</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>45581.7397337963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>45579.99072916667</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>45299.62641203704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>45874.64545138889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>45874</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>45874</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>45257.42439814815</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>45874</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>45876.47466435185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>45408.62030092593</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>45356.38741898148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>45316</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>45215</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>45880.66543981482</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>45933.26612268519</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>45589</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>45168</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>45168</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>45170.72892361111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>45883</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>45091.3471412037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>45889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>45938.67177083333</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44662</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44711</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>45259.43509259259</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45488</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>45812.7384375</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>45769.56699074074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>45883.91351851852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>45335</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>45279</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>45946.77001157407</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>45562.51806712963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45562.52197916667</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>45167.67372685186</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45950.61408564815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>45950.61924768519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>45636.61754629629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45636.6203587963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>45951.62796296296</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>45952.58759259259</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45952.59629629629</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45952.60084490741</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45692.43351851852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>45959.64181712963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>45555</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>45959.54585648148</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>45959.54981481482</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>45959.5528125</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45959.54146990741</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>45183.52023148148</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>45279</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45959.64355324074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>45268</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45209.44792824074</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45632.56091435185</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45967.66916666667</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>45050</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21774,7 +21774,7 @@
         <v>45329</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>45973</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>45973.47600694445</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44316.34237268518</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44712</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>45974.88986111111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>45264</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>45258</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>44628.69831018519</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>45035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22349,7 +22349,7 @@
         <v>44880.65715277778</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44897</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>45980.68539351852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>45758.31204861111</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>45727.72804398148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>45981.81606481481</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44557.47532407408</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>45986</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45986</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>45986</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44309</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45952</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45482.40924768519</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>45988.40692129629</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>45952</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45476.48814814815</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45476.49149305555</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>45988.42230324074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>46034.73287037037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>46034.73011574074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>45607.58951388889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44285</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>45895</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>45217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>45614.53155092592</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>45348.61578703704</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>45441.5399537037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>45699</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45323.32376157407</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45994.35421296296</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>44607.72329861111</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45994.48966435185</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>45435</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44518.49196759259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>44520.28814814815</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>45117.61945601852</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45537.81940972222</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>45154</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>44610.42103009259</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>44753.56546296296</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>45049</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44721.34331018518</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>46027</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44742</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>45170.71023148148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>46002.59631944444</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>46044.6992824074</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25115,7 +25115,7 @@
         <v>45159.37650462963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>45146.5987037037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>46044.55273148148</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>46006.61938657407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45316</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>44595.5705787037</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>44917</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>46008.64953703704</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>46050.32162037037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>46007.83387731481</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>45126</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44410</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>46008.4332175926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>45259.43715277778</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>46050.55594907407</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>45589</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>46013.54628472222</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>44852.64613425926</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>45168</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45170</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45967</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45485.55289351852</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44974.45418981482</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>46057.26278935185</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>46057.26717592592</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>46057.59984953704</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>46057.60424768519</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44775</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>44910.59059027778</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>44571.46902777778</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>46057.26606481482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>44266.8628125</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>46059.43388888889</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         <v>46059.63407407407</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27125,7 +27125,7 @@
         <v>46059.63744212963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45168</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>46062.471875</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45588.61980324074</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>46035</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45156.3503587963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>44868.59210648148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>44938</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>46065.45821759259</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>46051</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>45006</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>45660.6609375</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45217.41502314815</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45217</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>45973</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>46069.55268518518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>46066.15418981481</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>45321</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>45267.42196759259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>45267</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>46027.51175925926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>45562.52357638889</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>46069.54798611111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>46066.15159722222</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>45627.83663194445</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>45973</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>45386</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44482.48983796296</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44482</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44642</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44722.39731481481</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44537</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44712</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>45230.59971064814</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>45239.56006944444</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>45239.56157407408</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>46031.52061342593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44461</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>46031.62069444444</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>46031</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>45589.27788194444</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44806.59726851852</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29601,7 +29601,7 @@
         <v>45168</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>45168</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44482</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>45615</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44922</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44964</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>44964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>45264</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44315.53799768518</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>45168</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>45531.38819444444</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44713</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>45122</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>45404.41497685185</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>45600</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44974.41206018518</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>45632.47847222222</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>44964</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>45169.63234953704</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>45168</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>45323</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>45203.58145833333</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45707</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45168</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>45769</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>45441.54493055555</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>45707.33138888889</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>45632.31962962963</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>45238.68503472222</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>45099</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>44827</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>45561.34983796296</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>45712.43388888889</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44298</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44974</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>45450.64008101852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>45429.52054398148</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>45306</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44470</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>45561.41157407407</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>45251</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>45216.62940972222</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44964.55631944445</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>45733.37868055556</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44775.39306712963</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44273</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>45090.27539351852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>45267</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>45194</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>45229.46193287037</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>45636.61350694444</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>44886.51590277778</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45712.4275462963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         <v>45071.73902777778</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32843,7 +32843,7 @@
         <v>45771.46960648148</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>45443</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32957,7 +32957,7 @@
         <v>45784.36950231482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33014,7 +33014,7 @@
         <v>45583.48961805556</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>45555.45988425926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>45747.41398148148</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>45792.65913194444</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>45694.65775462963</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44677.58336805556</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>45226.51993055556</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>45562.48688657407</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>45797</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>45716.47539351852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>45316</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>45627.58118055556</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>45735</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>45330</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>45359.7271412037</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>45812.67229166667</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>45817.39215277778</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>

--- a/Översikt HALMSTAD.xlsx
+++ b/Översikt HALMSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45168</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44767</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45820.53803240741</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45204</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>44595</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44538</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>44734</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44385</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44537</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44537</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45120</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>45315</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45824</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>45839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>45715</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>45692</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45874</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>45351</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>45692</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44715</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45986</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>45988.65354166667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>45894.40344907407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>45541</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>46057.60315972222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>46057</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45925</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45042.46042824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>45168</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44298.77184027778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>45099</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45168</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>45168</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>44840</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>45168</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>44756</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>44298</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44298.78383101852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44872.45966435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44278.85105324074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>44705.66399305555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>44398.61230324074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44677</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>44796.58885416666</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>44445.36804398148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         <v>44267</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44873</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44314.34269675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44271.85346064815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44470.49771990741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44390</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44286</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>44286.86600694444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>44470</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>44536</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>44298</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>44333.36709490741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>44455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>44872.55415509259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>44344.57557870371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>44538.31776620371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>44593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>44628.69372685185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>44649</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44474.2921412037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44760.72789351852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44258.33224537037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44760.71983796296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44470.49953703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44455</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>44677</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44865.60694444444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>44266.85804398148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>44537</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44579</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>44537</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44722.39940972222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44369</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44441</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44494</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44441</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44312</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44373</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44281</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44656</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44544.60033564815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44265.51692129629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>45482.41182870371</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>45279</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44875</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>45079</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>45363.30917824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>45642.38490740741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45642.46412037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45630.66725694444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>45610.58774305556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>45183</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>45358.37987268518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44281.34355324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>45091.2996875</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>45265</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>45196.53935185185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>45275</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>45642.38042824074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>45539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>44897</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>44845</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>45306.62268518518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>45742.5906712963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>44461</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>45733.38145833334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>45240.41471064815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>45169.64943287037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>45660.65819444445</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44482.51581018518</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>45775.48255787037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>45561.34752314815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>45168</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>45168</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>45168</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>45168</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>45168</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>45168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         <v>45769.57918981482</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44823</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>44691.50175925926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>45734.41832175926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>45329</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>45239</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>44594.69905092593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>45818</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>45805.35238425926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>45800.61434027777</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44687.38103009259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>45642</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>45819.41424768518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>45714.53895833333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45800</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45231</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>45677</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>45750.60021990741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>45824</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>45168</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45168</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44974</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>45260</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44321</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44308.44898148148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>45826.6940625</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>45818.32003472222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>45831</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44827</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>45257.41971064815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45894.40454861111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45750.90273148148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>45831.54060185186</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>45258.32262731482</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>45302</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>45831</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>45831</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>45065</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>45831.57732638889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>45831</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>45831.54210648148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>45831.54357638889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>45683.70596064815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>45000</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>45897.89027777778</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>45740.28686342593</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>45561.34861111111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>45834.33922453703</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>45897.90020833333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>45903.66137731481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45559</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45015</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45015</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45015.63540509259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>45356.38505787037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>45839</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>45839</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>45680.39600694444</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>45168</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>44885.79155092593</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>44885.78092592592</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>45096.6325</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>44952</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>45841.69149305556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13020,7 +13020,7 @@
         <v>45841.69039351852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>44742.4496875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>45240</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>45275.52637731482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44622</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>45840.21125</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45257</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45685.69002314815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45842.41909722222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45708.44487268518</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45793.52732638889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>45846.49229166667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45917.29790509259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>45916.63679398148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>45488</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44830.38820601852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>45415.46893518518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>45917.30282407408</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>45918.49800925926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>45681</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>45855.48496527778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>45660</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>45715</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>45918.583125</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>45854.67393518519</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>45856.40416666667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>45908.55969907407</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44316</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>45735</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>45750.6049537037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>45920.92194444445</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>45923</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>45923</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>45741.64314814815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>45531</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>45707</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>45925.62614583333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45925.66769675926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>45925.68002314815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>45924.38400462963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>45493.47959490741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>45251.91923611111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>44621</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>45172.95373842592</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>45826.35177083333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>45681.31789351852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>45681.31962962963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>45925.8955787037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44917.52165509259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44917.52959490741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>45000.74719907407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44917.52429398148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45736</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>45229</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45925.8935300926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44879.6184375</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44879</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44917.52596064815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45757.45137731481</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45581.66946759259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45926.39710648148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44699</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45082</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45001.32571759259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44580</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44817</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>45311</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>45266.35800925926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>45729.62856481481</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>45642</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>45692</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45931.3865162037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45050</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45006</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45029.34693287037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45401</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45611.55888888889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45159</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>44621.60381944444</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>44621</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45099</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45931.37336805555</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45931.37539351852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45931.37692129629</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45750.89005787037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45357.91354166667</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45797</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44699</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>45068</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>45581.7397337963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>45579.99072916667</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>45299.62641203704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>45874.64545138889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>45874</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>45874</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>45257.42439814815</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>45874</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>45876.47466435185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>45408.62030092593</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>45356.38741898148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>45316</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>45215</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>45880.66543981482</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>45933.26612268519</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>45589</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>45168</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>45168</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>45170.72892361111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>45883</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>45091.3471412037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>45889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>45938.67177083333</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44662</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>44711</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>45259.43509259259</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45488</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>45812.7384375</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>45769.56699074074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>45883.91351851852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>45335</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>45279</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>45946.77001157407</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>45562.51806712963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45562.52197916667</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>45167.67372685186</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45950.61408564815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>45950.61924768519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>45636.61754629629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45636.6203587963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>45951.62796296296</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>45952.58759259259</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45952.59629629629</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45952.60084490741</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45692.43351851852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>45959.64181712963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>45555</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>45959.54585648148</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>45959.54981481482</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>45959.5528125</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45959.54146990741</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>45183.52023148148</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>45279</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45959.64355324074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>45168</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>45268</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45209.44792824074</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45632.56091435185</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45967.66916666667</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>45050</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21774,7 +21774,7 @@
         <v>45329</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21831,7 +21831,7 @@
         <v>45973</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>45973.47600694445</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44316.34237268518</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44712</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>45974.88986111111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>45264</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>45258</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>44628.69831018519</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>45035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22349,7 +22349,7 @@
         <v>44880.65715277778</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44897</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>45980.68539351852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>45758.31204861111</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>45727.72804398148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>45981.81606481481</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44557.47532407408</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>45986</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45986</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>45986</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44309</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45952</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45482.40924768519</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>45988.40692129629</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>45952</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45476.48814814815</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45476.49149305555</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>45988.42230324074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>46034.73287037037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>46034.73011574074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>45607.58951388889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44285</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>45895</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>45217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>45614.53155092592</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>45348.61578703704</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>45441.5399537037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23918,7 +23918,7 @@
         <v>45699</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45323.32376157407</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24032,7 +24032,7 @@
         <v>45994.35421296296</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>44607.72329861111</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45994.48966435185</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24203,7 +24203,7 @@
         <v>45435</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44518.49196759259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>44520.28814814815</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>45117.61945601852</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45537.81940972222</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>45154</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>44610.42103009259</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>44753.56546296296</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>45049</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44721.34331018518</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>46027</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44742</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24944,7 +24944,7 @@
         <v>45170.71023148148</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25001,7 +25001,7 @@
         <v>46002.59631944444</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25058,7 +25058,7 @@
         <v>46044.6992824074</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25115,7 +25115,7 @@
         <v>45159.37650462963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25172,7 +25172,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>45146.5987037037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>46044.55273148148</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>46006.61938657407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45316</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>44595.5705787037</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>44917</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>46008.64953703704</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>46050.32162037037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>46007.83387731481</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>45126</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44410</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>46008.4332175926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>45259.43715277778</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>46050.55594907407</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>45589</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>46013.54628472222</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>44852.64613425926</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>45168</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45170</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45967</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45485.55289351852</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44974.45418981482</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>46057.26278935185</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>46057.26717592592</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>46057.59984953704</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>46057.60424768519</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>44775</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26783,7 +26783,7 @@
         <v>44910.59059027778</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26840,7 +26840,7 @@
         <v>44571.46902777778</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26897,7 +26897,7 @@
         <v>46057.26606481482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>44266.8628125</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27011,7 +27011,7 @@
         <v>46059.43388888889</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27068,7 +27068,7 @@
         <v>46059.63407407407</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27125,7 +27125,7 @@
         <v>46059.63744212963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27182,7 +27182,7 @@
         <v>45168</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
         <v>46062.471875</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27301,7 +27301,7 @@
         <v>45588.61980324074</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>46035</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45156.3503587963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>44868.59210648148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>44938</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>46065.45821759259</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>46051</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>45006</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>45660.6609375</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45217.41502314815</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45217</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>45973</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27995,7 +27995,7 @@
         <v>46069.55268518518</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>46066.15418981481</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>45321</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>45267.42196759259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>45267</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>46027.51175925926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28337,7 +28337,7 @@
         <v>45562.52357638889</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>46069.54798611111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>46066.15159722222</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>45627.83663194445</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>45973</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>45154</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>45386</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>44482.48983796296</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44482</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44642</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44722.39731481481</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44537</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         <v>44712</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29083,7 +29083,7 @@
         <v>45230.59971064814</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>45239.56006944444</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>45239.56157407408</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>46031.52061342593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44461</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>46031.62069444444</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>46031</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>45589.27788194444</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44806.59726851852</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29601,7 +29601,7 @@
         <v>45168</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>45168</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44482</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>45615</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44922</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44964</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>44964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>45264</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44315.53799768518</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>45168</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>45531.38819444444</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44713</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>45122</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>45404.41497685185</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>45600</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30543,7 +30543,7 @@
         <v>44974.41206018518</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>45632.47847222222</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>44964</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>45169.63234953704</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>45168</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>45323</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>45203.58145833333</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45707</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45168</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>45769</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>45441.54493055555</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>45099</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>45707.33138888889</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>45632.31962962963</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>45238.68503472222</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>45099</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>44827</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>45561.34983796296</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>45712.43388888889</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44298</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44974</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>45450.64008101852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>45429.52054398148</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>45306</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44470</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>45561.41157407407</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>45251</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>45216.62940972222</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44964.55631944445</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32211,7 +32211,7 @@
         <v>45733.37868055556</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32268,7 +32268,7 @@
         <v>44775.39306712963</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32325,7 +32325,7 @@
         <v>44273</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32382,7 +32382,7 @@
         <v>45090.27539351852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>45267</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>45194</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32553,7 +32553,7 @@
         <v>45229.46193287037</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32610,7 +32610,7 @@
         <v>45636.61350694444</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>44886.51590277778</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32729,7 +32729,7 @@
         <v>45712.4275462963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         <v>45071.73902777778</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32843,7 +32843,7 @@
         <v>45771.46960648148</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32900,7 +32900,7 @@
         <v>45443</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32957,7 +32957,7 @@
         <v>45784.36950231482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33014,7 +33014,7 @@
         <v>45583.48961805556</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>45555.45988425926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>45747.41398148148</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>45792.65913194444</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>45694.65775462963</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44677.58336805556</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>45226.51993055556</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>45562.48688657407</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>45797</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>45716.47539351852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>45316</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>45627.58118055556</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>45735</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>45330</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>45359.7271412037</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>45812.67229166667</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>45817.39215277778</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
